--- a/allure/json_ошибки/ЖурналРегистрации.xlsx
+++ b/allure/json_ошибки/ЖурналРегистрации.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
   <si>
     <t>№</t>
   </si>
@@ -94,7 +94,7 @@
     <t>Информация</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:41</t>
+    <t>26.09.2023 9:58:15</t>
   </si>
   <si>
     <t>1CV8C</t>
@@ -121,10 +121,10 @@
     <t>Нет транзакции</t>
   </si>
   <si>
-    <t>1 406</t>
-  </si>
-  <si>
-    <t>56</t>
+    <t>1 578</t>
+  </si>
+  <si>
+    <t>53</t>
   </si>
   <si>
     <t>mru1a013</t>
@@ -148,16 +148,16 @@
     <t>Уже открытый TestClient подключен на 48 000 порту.</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:42</t>
+    <t>26.09.2023 9:58:16</t>
   </si>
   <si>
     <t>VanessaAutomation.PIDКлиентаТестирования</t>
   </si>
   <si>
-    <t>Подключен клиент тестирования. PID &lt;13116&gt;. Порт &lt;48000&gt;.</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:43</t>
+    <t>Подключен клиент тестирования. PID &lt;6516&gt;. Порт &lt;48000&gt;.</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:17</t>
   </si>
   <si>
     <t>BackgroundJob</t>
@@ -175,10 +175,10 @@
     <t>1С:Бизнес-сеть. Запрос подсказки торговых предложений</t>
   </si>
   <si>
-    <t>1 533</t>
-  </si>
-  <si>
-    <t>136</t>
+    <t>1 703</t>
+  </si>
+  <si>
+    <t>133</t>
   </si>
   <si>
     <t>_$Transaction$_.Begin</t>
@@ -190,7 +190,7 @@
     <t>Зафиксирована</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:43 (5469140)</t>
+    <t>26.09.2023 9:58:17 (547232)</t>
   </si>
   <si>
     <t>_$Transaction$_.Commit</t>
@@ -199,10 +199,7 @@
     <t>Транзакция. Фиксация</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:43 (5469350)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44</t>
+    <t>26.09.2023 9:58:17 (547440)</t>
   </si>
   <si>
     <t>_$Job$_.Finish</t>
@@ -211,22 +208,22 @@
     <t>Фоновое задание. Успешное завершение</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:44 (5469750)</t>
-  </si>
-  <si>
-    <t>1 421</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <t>_$Session$_.Finish</t>
   </si>
   <si>
     <t>Сеанс. Завершение</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:44 (5470044)</t>
+    <t>26.09.2023 9:58:17 (547924)</t>
+  </si>
+  <si>
+    <t>1 592</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:17 (548130)</t>
   </si>
   <si>
     <t>_$Data$_.Update</t>
@@ -241,172 +238,169 @@
     <t>Регистр сведений. Замеры времени</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:44 (5470357)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5470565)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5470773)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5470981)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5471189)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5471397)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5471605)</t>
+    <t>26.09.2023 9:58:17 (548440)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:17 (548646)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (548852)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (549058)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (549264)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (549470)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (549676)</t>
   </si>
   <si>
     <t>ДоставкаТоваров.ПолучитьСписокПеревозчиковВФоне</t>
   </si>
   <si>
-    <t>1 534</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5471997)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5472205)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5472413)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:44 (5472623)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5473104)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5473312)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5473520)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5473728)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5473936)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5474144)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5474352)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5474560)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5474768)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5474976)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5475184)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5475392)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5475600)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5475808)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5476016)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5476224)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5476432)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5476640)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:47 (5476848)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:48</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:48 (5477056)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:49</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:49 (5477264)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:50</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:50 (5477472)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:51</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:51 (5477680)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:51 (5477888)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:51 (5478096)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5478304)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5478512)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5478720)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5478928)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5479136)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5479344)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5479552)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5479760)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5479968)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:52 (5480176)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:53</t>
+    <t>1 704</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (550066)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (550169)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (550376)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:18 (550686)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:20</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:20 (551165)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:20 (551371)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:20 (551577)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (551783)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (551989)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (552195)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (552401)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (552607)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (552813)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (553019)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (553225)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (553431)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (553637)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (553843)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (554049)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (554255)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (554461)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (554667)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (554873)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:21 (555079)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:23</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:23 (555285)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:23 (555491)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (555697)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (555903)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (556109)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (556315)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (556521)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (556727)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (556933)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (557139)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (557345)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (557551)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:25 (557757)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:26</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:26 (557963)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:26 (558169)</t>
   </si>
   <si>
     <t>GetDiscountsPE</t>
@@ -415,28 +409,31 @@
     <t>Завершено</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:53 (5480490)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:53 (5480698)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:53 (5480906)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:54</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:54 (5481114)</t>
-  </si>
-  <si>
-    <t>25.09.2023 19:26:54 (5481322)</t>
+    <t>26.09.2023 9:58:26 (558481)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:27</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:27 (558687)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:27 (558893)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:27 (559099)</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:28</t>
+  </si>
+  <si>
+    <t>26.09.2023 9:58:28 (559305)</t>
   </si>
   <si>
     <t>Ошибка</t>
   </si>
   <si>
-    <t>25.09.2023 19:26:57</t>
+    <t>26.09.2023 9:58:31</t>
   </si>
   <si>
     <t>VanessaAutomation.ПодробноеПредставлениеОшибки</t>
@@ -491,7 +488,7 @@
 {ВнешняяОбработка.VanessaAutomation.Форма.УправляемаяФорма.Форма(29802)}:ВыполнитьШагПродолжение(РезультатПрохожденияШага, ОбработкаТеста);</t>
   </si>
   <si>
-    <t>25.09.2023 19:27:00</t>
+    <t>26.09.2023 9:58:35</t>
   </si>
   <si>
     <t>VanessaAutomation.VASettings</t>
@@ -573,7 +570,7 @@
                 "ДопПараметры": "/N\"ЛатышевК\" ",
                 "ТипКлиента": "Тонкий",
                 "ИмяКомпьютера": "localhost",
-                "PIDКлиентаТестирования": 13116
+                "PIDКлиентаТестирования": 6516
             },
             {
                 "Имя": "TM",
@@ -837,13 +834,13 @@
         ТипКлиентаТестирования: Тонкий
         СтрокаСоединения: Srvr="mru1a013";Ref="KA2KL";
         ДопПараметрыПодключения: /N"ЛатышевК" 
-        PIDКлиентаТестирования: 13116
+        PIDКлиентаТестирования: 6516
         ВерсияVA: ver 1.2.040.20
         ВерсияПлатформы: 8.3.22.1923
         ТипПлатформы: Windows x86-64
         РежимСовместимостиTestManager: Версия8_3_17
         ВремяРаботыСценария: 0:00:18 (ч:м:с)
-        ДатаВремяОшибки: 25.09.2023 19:26:59</t>
+        ДатаВремяОшибки: 26.09.2023 9:58:33</t>
   </si>
 </sst>
 </file>
@@ -1588,7 +1585,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>45</v>
@@ -1597,10 +1594,10 @@
         <v>46</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>27</v>
@@ -1638,7 +1635,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="33" customHeight="true" s="1" customFormat="true">
+    <row r="12" ht="22" customHeight="true" s="1" customFormat="true">
       <c r="A12" s="4" t="n">
         <v>11</v>
       </c>
@@ -1646,19 +1643,19 @@
         <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>27</v>
@@ -1667,7 +1664,7 @@
         <v>28</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K12" s="5" t="e"/>
       <c r="L12" s="5" t="e"/>
@@ -1675,28 +1672,24 @@
       <c r="N12" s="5" t="e"/>
       <c r="O12" s="5" t="e"/>
       <c r="P12" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>62</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="e"/>
       <c r="R12" s="5" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="T12" s="5" t="e"/>
       <c r="U12" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V12" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" ht="22" customHeight="true" s="1" customFormat="true">
+    <row r="13" ht="33" customHeight="true" s="1" customFormat="true">
       <c r="A13" s="4" t="n">
         <v>12</v>
       </c>
@@ -1704,19 +1697,19 @@
         <v>22</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>27</v>
@@ -1725,7 +1718,7 @@
         <v>28</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K13" s="5" t="e"/>
       <c r="L13" s="5" t="e"/>
@@ -1733,18 +1726,22 @@
       <c r="N13" s="5" t="e"/>
       <c r="O13" s="5" t="e"/>
       <c r="P13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="5" t="e"/>
+        <v>54</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="R13" s="5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="T13" s="5" t="e"/>
+        <v>65</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="U13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V13" s="5" t="s">
         <v>36</v>
@@ -1758,7 +1755,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>24</v>
@@ -1790,13 +1787,13 @@
         <v>54</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>34</v>
@@ -1816,7 +1813,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>24</v>
@@ -1848,13 +1845,13 @@
         <v>54</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T15" s="5" t="s">
         <v>34</v>
@@ -1874,7 +1871,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>24</v>
@@ -1883,25 +1880,25 @@
         <v>25</v>
       </c>
       <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="M16" s="5" t="e"/>
       <c r="N16" s="5" t="e"/>
@@ -1910,13 +1907,13 @@
         <v>54</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T16" s="5" t="s">
         <v>34</v>
@@ -1936,7 +1933,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>24</v>
@@ -1968,13 +1965,13 @@
         <v>54</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T17" s="5" t="s">
         <v>34</v>
@@ -1994,7 +1991,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>24</v>
@@ -2026,13 +2023,13 @@
         <v>54</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>34</v>
@@ -2052,7 +2049,7 @@
         <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>24</v>
@@ -2084,13 +2081,13 @@
         <v>54</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T19" s="5" t="s">
         <v>34</v>
@@ -2110,7 +2107,7 @@
         <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>24</v>
@@ -2142,13 +2139,13 @@
         <v>54</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T20" s="5" t="s">
         <v>34</v>
@@ -2168,7 +2165,7 @@
         <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>24</v>
@@ -2200,13 +2197,13 @@
         <v>54</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>34</v>
@@ -2226,7 +2223,7 @@
         <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>24</v>
@@ -2261,10 +2258,10 @@
         <v>74</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T22" s="5" t="s">
         <v>34</v>
@@ -2284,7 +2281,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>24</v>
@@ -2319,10 +2316,10 @@
         <v>74</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T23" s="5" t="s">
         <v>34</v>
@@ -2342,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>24</v>
@@ -2377,10 +2374,10 @@
         <v>75</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T24" s="5" t="s">
         <v>34</v>
@@ -2400,7 +2397,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>24</v>
@@ -2435,10 +2432,10 @@
         <v>75</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T25" s="5" t="s">
         <v>34</v>
@@ -2458,7 +2455,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>24</v>
@@ -2493,10 +2490,10 @@
         <v>76</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>34</v>
@@ -2516,7 +2513,7 @@
         <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>24</v>
@@ -2551,10 +2548,10 @@
         <v>76</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T27" s="5" t="s">
         <v>34</v>
@@ -2574,7 +2571,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>24</v>
@@ -2609,10 +2606,10 @@
         <v>77</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T28" s="5" t="s">
         <v>34</v>
@@ -2632,7 +2629,7 @@
         <v>22</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>24</v>
@@ -2667,10 +2664,10 @@
         <v>77</v>
       </c>
       <c r="R29" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S29" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T29" s="5" t="s">
         <v>34</v>
@@ -2690,7 +2687,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>24</v>
@@ -2725,10 +2722,10 @@
         <v>78</v>
       </c>
       <c r="R30" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S30" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T30" s="5" t="s">
         <v>34</v>
@@ -2748,7 +2745,7 @@
         <v>22</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>24</v>
@@ -2783,10 +2780,10 @@
         <v>78</v>
       </c>
       <c r="R31" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>34</v>
@@ -2806,7 +2803,7 @@
         <v>22</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>45</v>
@@ -2864,7 +2861,7 @@
         <v>22</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>24</v>
@@ -2899,10 +2896,10 @@
         <v>82</v>
       </c>
       <c r="R33" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S33" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T33" s="5" t="s">
         <v>34</v>
@@ -2922,19 +2919,19 @@
         <v>22</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>27</v>
@@ -2943,7 +2940,7 @@
         <v>28</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K34" s="5" t="e"/>
       <c r="L34" s="5" t="e"/>
@@ -2954,13 +2951,13 @@
         <v>54</v>
       </c>
       <c r="Q34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="R34" s="5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="S34" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="T34" s="5" t="s">
         <v>34</v>
@@ -2980,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>24</v>
@@ -2989,10 +2986,10 @@
         <v>25</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H35" s="5" t="s">
         <v>27</v>
@@ -3012,13 +3009,13 @@
         <v>54</v>
       </c>
       <c r="Q35" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="R35" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S35" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T35" s="5" t="s">
         <v>34</v>
@@ -3038,7 +3035,7 @@
         <v>22</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>24</v>
@@ -3047,10 +3044,10 @@
         <v>25</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>27</v>
@@ -3070,13 +3067,13 @@
         <v>54</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R36" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S36" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T36" s="5" t="s">
         <v>34</v>
@@ -3096,7 +3093,7 @@
         <v>22</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>45</v>
@@ -3105,10 +3102,10 @@
         <v>46</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>27</v>
@@ -3128,7 +3125,7 @@
         <v>54</v>
       </c>
       <c r="Q37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="R37" s="5" t="s">
         <v>80</v>
@@ -3154,13 +3151,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F38" s="5" t="s">
         <v>56</v>
@@ -3175,7 +3172,7 @@
         <v>28</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K38" s="5" t="e"/>
       <c r="L38" s="5" t="e"/>
@@ -3189,10 +3186,10 @@
         <v>84</v>
       </c>
       <c r="R38" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="S38" s="5" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="T38" s="5" t="s">
         <v>34</v>
@@ -3212,7 +3209,7 @@
         <v>22</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>45</v>
@@ -3270,7 +3267,7 @@
         <v>22</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>45</v>
@@ -3328,7 +3325,7 @@
         <v>22</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>45</v>
@@ -3337,10 +3334,10 @@
         <v>46</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="H41" s="5" t="s">
         <v>27</v>
@@ -3386,7 +3383,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>45</v>
@@ -3395,10 +3392,10 @@
         <v>46</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>27</v>
@@ -3475,10 +3472,10 @@
         <v>87</v>
       </c>
       <c r="R43" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S43" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T43" s="5" t="s">
         <v>34</v>
@@ -3533,10 +3530,10 @@
         <v>87</v>
       </c>
       <c r="R44" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S44" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T44" s="5" t="s">
         <v>34</v>
@@ -3591,10 +3588,10 @@
         <v>88</v>
       </c>
       <c r="R45" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S45" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T45" s="5" t="s">
         <v>34</v>
@@ -3649,10 +3646,10 @@
         <v>88</v>
       </c>
       <c r="R46" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S46" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T46" s="5" t="s">
         <v>34</v>
@@ -3707,10 +3704,10 @@
         <v>89</v>
       </c>
       <c r="R47" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S47" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T47" s="5" t="s">
         <v>34</v>
@@ -3765,10 +3762,10 @@
         <v>89</v>
       </c>
       <c r="R48" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S48" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T48" s="5" t="s">
         <v>34</v>
@@ -3788,7 +3785,7 @@
         <v>22</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>24</v>
@@ -3820,13 +3817,13 @@
         <v>54</v>
       </c>
       <c r="Q49" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R49" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S49" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T49" s="5" t="s">
         <v>34</v>
@@ -3846,7 +3843,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>24</v>
@@ -3878,13 +3875,13 @@
         <v>54</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="R50" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S50" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T50" s="5" t="s">
         <v>34</v>
@@ -3904,7 +3901,7 @@
         <v>22</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>24</v>
@@ -3936,13 +3933,13 @@
         <v>54</v>
       </c>
       <c r="Q51" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R51" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S51" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T51" s="5" t="s">
         <v>34</v>
@@ -3962,7 +3959,7 @@
         <v>22</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>24</v>
@@ -3994,13 +3991,13 @@
         <v>54</v>
       </c>
       <c r="Q52" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="R52" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S52" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T52" s="5" t="s">
         <v>34</v>
@@ -4020,7 +4017,7 @@
         <v>22</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>24</v>
@@ -4052,13 +4049,13 @@
         <v>54</v>
       </c>
       <c r="Q53" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R53" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S53" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T53" s="5" t="s">
         <v>34</v>
@@ -4078,7 +4075,7 @@
         <v>22</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>24</v>
@@ -4110,13 +4107,13 @@
         <v>54</v>
       </c>
       <c r="Q54" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="R54" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S54" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T54" s="5" t="s">
         <v>34</v>
@@ -4136,7 +4133,7 @@
         <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>24</v>
@@ -4168,13 +4165,13 @@
         <v>54</v>
       </c>
       <c r="Q55" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R55" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S55" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T55" s="5" t="s">
         <v>34</v>
@@ -4194,7 +4191,7 @@
         <v>22</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>24</v>
@@ -4226,13 +4223,13 @@
         <v>54</v>
       </c>
       <c r="Q56" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="R56" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S56" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T56" s="5" t="s">
         <v>34</v>
@@ -4252,7 +4249,7 @@
         <v>22</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>24</v>
@@ -4284,13 +4281,13 @@
         <v>54</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R57" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S57" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T57" s="5" t="s">
         <v>34</v>
@@ -4310,7 +4307,7 @@
         <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>24</v>
@@ -4342,13 +4339,13 @@
         <v>54</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R58" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S58" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T58" s="5" t="s">
         <v>34</v>
@@ -4368,7 +4365,7 @@
         <v>22</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>24</v>
@@ -4400,13 +4397,13 @@
         <v>54</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R59" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S59" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T59" s="5" t="s">
         <v>34</v>
@@ -4426,7 +4423,7 @@
         <v>22</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>24</v>
@@ -4458,13 +4455,13 @@
         <v>54</v>
       </c>
       <c r="Q60" s="5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="R60" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S60" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T60" s="5" t="s">
         <v>34</v>
@@ -4484,7 +4481,7 @@
         <v>22</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>24</v>
@@ -4516,13 +4513,13 @@
         <v>54</v>
       </c>
       <c r="Q61" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R61" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S61" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T61" s="5" t="s">
         <v>34</v>
@@ -4542,7 +4539,7 @@
         <v>22</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>24</v>
@@ -4574,13 +4571,13 @@
         <v>54</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="R62" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S62" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T62" s="5" t="s">
         <v>34</v>
@@ -4600,7 +4597,7 @@
         <v>22</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>24</v>
@@ -4632,13 +4629,13 @@
         <v>54</v>
       </c>
       <c r="Q63" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R63" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S63" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T63" s="5" t="s">
         <v>34</v>
@@ -4658,7 +4655,7 @@
         <v>22</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>24</v>
@@ -4690,13 +4687,13 @@
         <v>54</v>
       </c>
       <c r="Q64" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S64" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T64" s="5" t="s">
         <v>34</v>
@@ -4716,7 +4713,7 @@
         <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>24</v>
@@ -4748,13 +4745,13 @@
         <v>54</v>
       </c>
       <c r="Q65" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R65" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S65" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T65" s="5" t="s">
         <v>34</v>
@@ -4774,7 +4771,7 @@
         <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>24</v>
@@ -4806,13 +4803,13 @@
         <v>54</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="R66" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S66" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T66" s="5" t="s">
         <v>34</v>
@@ -4832,7 +4829,7 @@
         <v>22</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>24</v>
@@ -4864,13 +4861,13 @@
         <v>54</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R67" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S67" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T67" s="5" t="s">
         <v>34</v>
@@ -4890,7 +4887,7 @@
         <v>22</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>24</v>
@@ -4922,13 +4919,13 @@
         <v>54</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="R68" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S68" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T68" s="5" t="s">
         <v>34</v>
@@ -4948,7 +4945,7 @@
         <v>22</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>24</v>
@@ -4980,13 +4977,13 @@
         <v>54</v>
       </c>
       <c r="Q69" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R69" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S69" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T69" s="5" t="s">
         <v>34</v>
@@ -5006,7 +5003,7 @@
         <v>22</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>24</v>
@@ -5038,13 +5035,13 @@
         <v>54</v>
       </c>
       <c r="Q70" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="R70" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S70" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T70" s="5" t="s">
         <v>34</v>
@@ -5064,7 +5061,7 @@
         <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>24</v>
@@ -5096,13 +5093,13 @@
         <v>54</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R71" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S71" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T71" s="5" t="s">
         <v>34</v>
@@ -5122,7 +5119,7 @@
         <v>22</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>24</v>
@@ -5154,13 +5151,13 @@
         <v>54</v>
       </c>
       <c r="Q72" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="R72" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S72" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T72" s="5" t="s">
         <v>34</v>
@@ -5180,7 +5177,7 @@
         <v>22</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>24</v>
@@ -5212,13 +5209,13 @@
         <v>54</v>
       </c>
       <c r="Q73" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R73" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S73" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T73" s="5" t="s">
         <v>34</v>
@@ -5238,7 +5235,7 @@
         <v>22</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>24</v>
@@ -5270,13 +5267,13 @@
         <v>54</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R74" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S74" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T74" s="5" t="s">
         <v>34</v>
@@ -5296,7 +5293,7 @@
         <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>24</v>
@@ -5328,13 +5325,13 @@
         <v>54</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R75" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S75" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T75" s="5" t="s">
         <v>34</v>
@@ -5354,7 +5351,7 @@
         <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>24</v>
@@ -5386,13 +5383,13 @@
         <v>54</v>
       </c>
       <c r="Q76" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S76" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T76" s="5" t="s">
         <v>34</v>
@@ -5412,7 +5409,7 @@
         <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>24</v>
@@ -5444,13 +5441,13 @@
         <v>54</v>
       </c>
       <c r="Q77" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R77" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S77" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T77" s="5" t="s">
         <v>34</v>
@@ -5470,7 +5467,7 @@
         <v>22</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>24</v>
@@ -5502,13 +5499,13 @@
         <v>54</v>
       </c>
       <c r="Q78" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R78" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S78" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T78" s="5" t="s">
         <v>34</v>
@@ -5528,7 +5525,7 @@
         <v>22</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>24</v>
@@ -5560,13 +5557,13 @@
         <v>54</v>
       </c>
       <c r="Q79" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R79" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S79" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T79" s="5" t="s">
         <v>34</v>
@@ -5586,7 +5583,7 @@
         <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>24</v>
@@ -5618,13 +5615,13 @@
         <v>54</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="R80" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S80" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T80" s="5" t="s">
         <v>34</v>
@@ -5644,7 +5641,7 @@
         <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>24</v>
@@ -5679,10 +5676,10 @@
         <v>107</v>
       </c>
       <c r="R81" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S81" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T81" s="5" t="s">
         <v>34</v>
@@ -5702,7 +5699,7 @@
         <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>24</v>
@@ -5737,10 +5734,10 @@
         <v>107</v>
       </c>
       <c r="R82" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S82" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T82" s="5" t="s">
         <v>34</v>
@@ -5795,10 +5792,10 @@
         <v>109</v>
       </c>
       <c r="R83" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S83" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T83" s="5" t="s">
         <v>34</v>
@@ -5853,10 +5850,10 @@
         <v>109</v>
       </c>
       <c r="R84" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S84" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T84" s="5" t="s">
         <v>34</v>
@@ -5876,7 +5873,7 @@
         <v>22</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>24</v>
@@ -5908,13 +5905,13 @@
         <v>54</v>
       </c>
       <c r="Q85" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R85" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S85" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T85" s="5" t="s">
         <v>34</v>
@@ -5934,7 +5931,7 @@
         <v>22</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>24</v>
@@ -5966,13 +5963,13 @@
         <v>54</v>
       </c>
       <c r="Q86" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R86" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S86" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T86" s="5" t="s">
         <v>34</v>
@@ -5992,7 +5989,7 @@
         <v>22</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>24</v>
@@ -6024,13 +6021,13 @@
         <v>54</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R87" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S87" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T87" s="5" t="s">
         <v>34</v>
@@ -6050,7 +6047,7 @@
         <v>22</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>24</v>
@@ -6082,13 +6079,13 @@
         <v>54</v>
       </c>
       <c r="Q88" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R88" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S88" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T88" s="5" t="s">
         <v>34</v>
@@ -6108,7 +6105,7 @@
         <v>22</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>24</v>
@@ -6140,13 +6137,13 @@
         <v>54</v>
       </c>
       <c r="Q89" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R89" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S89" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T89" s="5" t="s">
         <v>34</v>
@@ -6166,7 +6163,7 @@
         <v>22</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>24</v>
@@ -6198,13 +6195,13 @@
         <v>54</v>
       </c>
       <c r="Q90" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R90" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S90" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T90" s="5" t="s">
         <v>34</v>
@@ -6224,7 +6221,7 @@
         <v>22</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>24</v>
@@ -6256,13 +6253,13 @@
         <v>54</v>
       </c>
       <c r="Q91" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R91" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S91" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T91" s="5" t="s">
         <v>34</v>
@@ -6282,7 +6279,7 @@
         <v>22</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>24</v>
@@ -6314,13 +6311,13 @@
         <v>54</v>
       </c>
       <c r="Q92" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R92" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S92" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T92" s="5" t="s">
         <v>34</v>
@@ -6340,7 +6337,7 @@
         <v>22</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>24</v>
@@ -6372,13 +6369,13 @@
         <v>54</v>
       </c>
       <c r="Q93" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R93" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S93" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T93" s="5" t="s">
         <v>34</v>
@@ -6398,7 +6395,7 @@
         <v>22</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>24</v>
@@ -6430,13 +6427,13 @@
         <v>54</v>
       </c>
       <c r="Q94" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="R94" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S94" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T94" s="5" t="s">
         <v>34</v>
@@ -6456,7 +6453,7 @@
         <v>22</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>24</v>
@@ -6488,13 +6485,13 @@
         <v>54</v>
       </c>
       <c r="Q95" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R95" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S95" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T95" s="5" t="s">
         <v>34</v>
@@ -6514,7 +6511,7 @@
         <v>22</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>24</v>
@@ -6546,13 +6543,13 @@
         <v>54</v>
       </c>
       <c r="Q96" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R96" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S96" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T96" s="5" t="s">
         <v>34</v>
@@ -6572,7 +6569,7 @@
         <v>22</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>24</v>
@@ -6604,13 +6601,13 @@
         <v>54</v>
       </c>
       <c r="Q97" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R97" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S97" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T97" s="5" t="s">
         <v>34</v>
@@ -6630,7 +6627,7 @@
         <v>22</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>24</v>
@@ -6662,13 +6659,13 @@
         <v>54</v>
       </c>
       <c r="Q98" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="R98" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S98" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T98" s="5" t="s">
         <v>34</v>
@@ -6688,7 +6685,7 @@
         <v>22</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>24</v>
@@ -6720,13 +6717,13 @@
         <v>54</v>
       </c>
       <c r="Q99" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R99" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S99" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T99" s="5" t="s">
         <v>34</v>
@@ -6746,7 +6743,7 @@
         <v>22</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>24</v>
@@ -6778,13 +6775,13 @@
         <v>54</v>
       </c>
       <c r="Q100" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R100" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S100" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T100" s="5" t="s">
         <v>34</v>
@@ -6804,7 +6801,7 @@
         <v>22</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>24</v>
@@ -6836,13 +6833,13 @@
         <v>54</v>
       </c>
       <c r="Q101" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R101" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S101" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T101" s="5" t="s">
         <v>34</v>
@@ -6862,7 +6859,7 @@
         <v>22</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>24</v>
@@ -6894,13 +6891,13 @@
         <v>54</v>
       </c>
       <c r="Q102" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R102" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S102" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T102" s="5" t="s">
         <v>34</v>
@@ -6920,7 +6917,7 @@
         <v>22</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>24</v>
@@ -6952,13 +6949,13 @@
         <v>54</v>
       </c>
       <c r="Q103" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R103" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S103" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T103" s="5" t="s">
         <v>34</v>
@@ -6978,7 +6975,7 @@
         <v>22</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>24</v>
@@ -7010,13 +7007,13 @@
         <v>54</v>
       </c>
       <c r="Q104" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="R104" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S104" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T104" s="5" t="s">
         <v>34</v>
@@ -7036,7 +7033,7 @@
         <v>22</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>24</v>
@@ -7068,13 +7065,13 @@
         <v>54</v>
       </c>
       <c r="Q105" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R105" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S105" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T105" s="5" t="s">
         <v>34</v>
@@ -7094,7 +7091,7 @@
         <v>22</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>24</v>
@@ -7126,13 +7123,13 @@
         <v>54</v>
       </c>
       <c r="Q106" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R106" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S106" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T106" s="5" t="s">
         <v>34</v>
@@ -7152,7 +7149,7 @@
         <v>22</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>24</v>
@@ -7184,13 +7181,13 @@
         <v>54</v>
       </c>
       <c r="Q107" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R107" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S107" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T107" s="5" t="s">
         <v>34</v>
@@ -7210,7 +7207,7 @@
         <v>22</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>24</v>
@@ -7242,13 +7239,13 @@
         <v>54</v>
       </c>
       <c r="Q108" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R108" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S108" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T108" s="5" t="s">
         <v>34</v>
@@ -7268,7 +7265,7 @@
         <v>22</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>24</v>
@@ -7300,13 +7297,13 @@
         <v>54</v>
       </c>
       <c r="Q109" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R109" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S109" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T109" s="5" t="s">
         <v>34</v>
@@ -7326,7 +7323,7 @@
         <v>22</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>24</v>
@@ -7358,13 +7355,13 @@
         <v>54</v>
       </c>
       <c r="Q110" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R110" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S110" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T110" s="5" t="s">
         <v>34</v>
@@ -7384,7 +7381,7 @@
         <v>22</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>24</v>
@@ -7416,13 +7413,13 @@
         <v>54</v>
       </c>
       <c r="Q111" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R111" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S111" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T111" s="5" t="s">
         <v>34</v>
@@ -7442,7 +7439,7 @@
         <v>22</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>24</v>
@@ -7474,13 +7471,13 @@
         <v>54</v>
       </c>
       <c r="Q112" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R112" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S112" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T112" s="5" t="s">
         <v>34</v>
@@ -7500,7 +7497,7 @@
         <v>22</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>24</v>
@@ -7509,10 +7506,10 @@
         <v>25</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H113" s="5" t="s">
         <v>27</v>
@@ -7526,7 +7523,7 @@
       <c r="K113" s="5" t="e"/>
       <c r="L113" s="5" t="e"/>
       <c r="M113" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="N113" s="5" t="e"/>
       <c r="O113" s="5" t="e"/>
@@ -7535,10 +7532,10 @@
       </c>
       <c r="Q113" s="5" t="e"/>
       <c r="R113" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S113" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T113" s="5" t="s">
         <v>34</v>
@@ -7558,7 +7555,7 @@
         <v>22</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>24</v>
@@ -7590,13 +7587,13 @@
         <v>54</v>
       </c>
       <c r="Q114" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R114" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S114" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T114" s="5" t="s">
         <v>34</v>
@@ -7616,7 +7613,7 @@
         <v>22</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>24</v>
@@ -7648,13 +7645,13 @@
         <v>54</v>
       </c>
       <c r="Q115" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R115" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S115" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T115" s="5" t="s">
         <v>34</v>
@@ -7674,7 +7671,7 @@
         <v>22</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>24</v>
@@ -7706,13 +7703,13 @@
         <v>54</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R116" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S116" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T116" s="5" t="s">
         <v>34</v>
@@ -7732,7 +7729,7 @@
         <v>22</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>24</v>
@@ -7764,13 +7761,13 @@
         <v>54</v>
       </c>
       <c r="Q117" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="R117" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S117" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T117" s="5" t="s">
         <v>34</v>
@@ -7790,7 +7787,7 @@
         <v>22</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>24</v>
@@ -7822,13 +7819,13 @@
         <v>54</v>
       </c>
       <c r="Q118" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R118" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S118" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T118" s="5" t="s">
         <v>34</v>
@@ -7848,7 +7845,7 @@
         <v>22</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>24</v>
@@ -7880,13 +7877,13 @@
         <v>54</v>
       </c>
       <c r="Q119" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="R119" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S119" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T119" s="5" t="s">
         <v>34</v>
@@ -7906,7 +7903,7 @@
         <v>22</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>24</v>
@@ -7938,13 +7935,13 @@
         <v>54</v>
       </c>
       <c r="Q120" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R120" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S120" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T120" s="5" t="s">
         <v>34</v>
@@ -7964,7 +7961,7 @@
         <v>22</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>24</v>
@@ -7996,13 +7993,13 @@
         <v>54</v>
       </c>
       <c r="Q121" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R121" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S121" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T121" s="5" t="s">
         <v>34</v>
@@ -8054,13 +8051,13 @@
         <v>54</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R122" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S122" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T122" s="5" t="s">
         <v>34</v>
@@ -8112,13 +8109,13 @@
         <v>54</v>
       </c>
       <c r="Q123" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R123" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S123" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T123" s="5" t="s">
         <v>34</v>
@@ -8135,22 +8132,22 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C124" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="D124" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F124" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="D124" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E124" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F124" s="5" t="s">
-        <v>138</v>
-      </c>
       <c r="G124" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H124" s="5" t="s">
         <v>27</v>
@@ -8164,7 +8161,7 @@
       <c r="K124" s="5" t="e"/>
       <c r="L124" s="5" t="e"/>
       <c r="M124" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N124" s="5" t="e"/>
       <c r="O124" s="5" t="e"/>
@@ -8196,19 +8193,19 @@
         <v>22</v>
       </c>
       <c r="C125" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F125" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D125" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E125" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F125" s="5" t="s">
-        <v>141</v>
-      </c>
       <c r="G125" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H125" s="5" t="s">
         <v>27</v>
@@ -8222,7 +8219,7 @@
       <c r="K125" s="5" t="e"/>
       <c r="L125" s="5" t="e"/>
       <c r="M125" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N125" s="5" t="e"/>
       <c r="O125" s="5" t="e"/>
@@ -8251,10 +8248,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>24</v>
@@ -8263,10 +8260,10 @@
         <v>25</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H126" s="5" t="s">
         <v>27</v>
@@ -8280,7 +8277,7 @@
       <c r="K126" s="5" t="e"/>
       <c r="L126" s="5" t="e"/>
       <c r="M126" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N126" s="5" t="e"/>
       <c r="O126" s="5" t="e"/>
